--- a/www/ig/nos/ValueSet-JDV-J192-TypeLitSupplementaire-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J192-TypeLitSupplementaire-ROR.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.4.25</t>
+    <t>urn:oid:1.2.250.1.213.3.4.25</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J192-TypeLitSupplementaire-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J192-TypeLitSupplementaire-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -112,9 +118,6 @@
   </si>
   <si>
     <t>Mobilisable avec ressources humaines</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -254,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -360,20 +363,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -395,50 +406,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J192-TypeLitSupplementaire-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J192-TypeLitSupplementaire-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,52 +72,49 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Permet d'indiquer dans le ROR le statut de lits supplémentaires, pour identifier le nombre de lits supplémentaires déjà mobilisés et, par typologie de mobilisation possible, le nombre de lits qui ne le sont pas encore</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Mobilisé</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Mobilisable sans ressources humaines</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Mobilisable avec ressources humaines</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Permet d'indiquer dans le ROR le statut de lits supplémentaires, pour identifier le nombre de lits supplémentaires déjà mobilisés et, par typologie de mobilisation possible, le nombre de lits qui ne le sont pas encore</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Mobilisé</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Mobilisable sans ressources humaines</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Mobilisable avec ressources humaines</t>
   </si>
   <si>
     <t>System URI</t>
@@ -257,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -363,28 +360,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -406,50 +395,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J192-TypeLitSupplementaire-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J192-TypeLitSupplementaire-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,49 +75,46 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Permet d'indiquer dans le ROR le statut de lits supplémentaires, pour identifier le nombre de lits supplémentaires déjà mobilisés et, par typologie de mobilisation possible, le nombre de lits qui ne le sont pas encore</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Mobilisé</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Mobilisable sans ressources humaines</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Mobilisable avec ressources humaines</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Permet d'indiquer dans le ROR le statut de lits supplémentaires, pour identifier le nombre de lits supplémentaires déjà mobilisés et, par typologie de mobilisation possible, le nombre de lits qui ne le sont pas encore</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Mobilisé</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Mobilisable sans ressources humaines</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Mobilisable avec ressources humaines</t>
   </si>
   <si>
     <t>System URI</t>
@@ -257,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -363,28 +360,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -406,50 +395,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J192-TypeLitSupplementaire-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J192-TypeLitSupplementaire-ROR.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
